--- a/masks/code/ResonatorArray_4in_20190310.xlsx
+++ b/masks/code/ResonatorArray_4in_20190310.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>AGA Marks</t>
   </si>
@@ -117,6 +117,12 @@
     <t>ResoArray_Mask_May2018</t>
   </si>
   <si>
+    <t>50umX15mm_Hline</t>
+  </si>
+  <si>
+    <t>50umX15mm_Vline</t>
+  </si>
+  <si>
     <t>feedline_GP_sub</t>
   </si>
   <si>
@@ -147,16 +153,13 @@
     <t>Via_to_Ground</t>
   </si>
   <si>
+    <t>Via_to_Ground_r</t>
+  </si>
+  <si>
     <t>reso_ILD_sub</t>
   </si>
   <si>
     <t>120nm_NbWiring</t>
-  </si>
-  <si>
-    <t>50umX15mm_Hline</t>
-  </si>
-  <si>
-    <t>50umX15mm_Vline</t>
   </si>
   <si>
     <t>Capacitor_306MHz</t>
@@ -715,7 +718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB87"/>
+  <dimension ref="A1:AB96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,8 +738,8 @@
     <col customWidth="1" max="10" min="10" width="22"/>
     <col customWidth="1" max="11" min="11" width="22"/>
     <col customWidth="1" max="12" min="12" width="6"/>
-    <col customWidth="1" max="13" min="13" width="20"/>
-    <col customWidth="1" max="14" min="14" width="8"/>
+    <col customWidth="1" max="13" min="13" width="21"/>
+    <col customWidth="1" max="14" min="14" width="23"/>
     <col customWidth="1" max="15" min="15" width="20"/>
     <col customWidth="1" max="16" min="16" width="22"/>
     <col customWidth="1" max="17" min="17" width="6"/>
@@ -1269,38 +1272,38 @@
         <v>0</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>11.4</v>
+        <v>12.55</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>11.4</v>
+        <v>15.4</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>-5.7</v>
+        <v>-7.7</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>5.7</v>
+        <v>7.7</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>11.6</v>
+        <v>12.8</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>11.2</v>
+        <v>12.3</v>
       </c>
       <c r="L16" s="1" t="n"/>
       <c r="M16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>0.959</v>
+        <v>0</v>
       </c>
       <c r="O16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>10.441</v>
+        <v>12.55</v>
       </c>
       <c r="Q16" s="1" t="n"/>
       <c r="R16" s="1" t="n"/>
@@ -1308,10 +1311,10 @@
         <v>32</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V16" s="1" t="n">
         <v>0</v>
@@ -1320,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="Z16" s="1" t="n"/>
       <c r="AA16" s="1" t="n"/>
@@ -1338,28 +1341,28 @@
         <v>34</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3.6</v>
+        <v>-10.6</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>0.8</v>
+        <v>15.4</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>3.2</v>
+        <v>-10.85</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>4</v>
+        <v>-10.35</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>1.05</v>
+        <v>7.7</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>0.25</v>
+        <v>-7.7</v>
       </c>
       <c r="L17" s="1" t="n"/>
       <c r="M17" s="1" t="n">
@@ -1369,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>3.6</v>
+        <v>-10.6</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="1" t="n"/>
       <c r="R17" s="1" t="n"/>
@@ -1380,22 +1383,22 @@
         <v>32</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>38.096</v>
+        <v>0</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>-4.337000000000001</v>
+        <v>0</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z17" s="1" t="n"/>
       <c r="AA17" s="1" t="n"/>
@@ -1407,44 +1410,44 @@
       </c>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0.65</v>
+        <v>11.4</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>0.8</v>
+        <v>11.4</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>3.2</v>
+        <v>-5.7</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>1.05</v>
+        <v>11.6</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>0.25</v>
+        <v>11.2</v>
       </c>
       <c r="L18" s="1" t="n"/>
       <c r="M18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>0</v>
+        <v>0.959</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>0.65</v>
+        <v>10.441</v>
       </c>
       <c r="Q18" s="1" t="n"/>
       <c r="R18" s="1" t="n"/>
@@ -1452,22 +1455,22 @@
         <v>32</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>38.096</v>
+        <v>0</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>6.255</v>
+        <v>0</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z18" s="1" t="n"/>
       <c r="AA18" s="1" t="n"/>
@@ -1479,31 +1482,31 @@
       </c>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>10.3</v>
+        <v>0.65</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>6.4</v>
+        <v>0.8</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>-3.2</v>
+        <v>3.2</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>10.1</v>
+        <v>0.25</v>
       </c>
       <c r="L19" s="1" t="n"/>
       <c r="M19" s="1" t="n">
@@ -1513,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>10.3</v>
+        <v>0.65</v>
       </c>
       <c r="Q19" s="1" t="n"/>
       <c r="R19" s="1" t="n"/>
@@ -1530,10 +1533,10 @@
         <v>1</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>35.1</v>
+        <v>38.096</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>-26.541</v>
+        <v>-4.337000000000001</v>
       </c>
       <c r="X19" s="1" t="n">
         <v>0</v>
@@ -1551,31 +1554,31 @@
       </c>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>10.3</v>
+        <v>0.65</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>6.4</v>
+        <v>0.8</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>-3.2</v>
+        <v>3.2</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>10.1</v>
+        <v>0.25</v>
       </c>
       <c r="L20" s="1" t="n"/>
       <c r="M20" s="1" t="n">
@@ -1585,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>10.3</v>
+        <v>0.65</v>
       </c>
       <c r="Q20" s="1" t="n"/>
       <c r="R20" s="1" t="n"/>
@@ -1602,10 +1605,10 @@
         <v>1</v>
       </c>
       <c r="V20" s="1" t="n">
-        <v>35.1</v>
+        <v>38.096</v>
       </c>
       <c r="W20" s="1" t="n">
-        <v>28.459</v>
+        <v>6.255</v>
       </c>
       <c r="X20" s="1" t="n">
         <v>0</v>
@@ -1623,31 +1626,31 @@
       </c>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>-8.75</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="F21" s="1" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G21" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="G21" s="1" t="n">
-        <v>22.4</v>
-      </c>
       <c r="H21" s="1" t="n">
-        <v>-8.949999999999999</v>
+        <v>-3.2</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>-8.550000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>-11.2</v>
+        <v>10.1</v>
       </c>
       <c r="L21" s="1" t="n"/>
       <c r="M21" s="1" t="n">
@@ -1657,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>-8.75</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="Q21" s="1" t="n"/>
       <c r="R21" s="1" t="n"/>
@@ -1674,10 +1677,10 @@
         <v>1</v>
       </c>
       <c r="V21" s="1" t="n">
-        <v>38.096</v>
+        <v>35.1</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>-15.537</v>
+        <v>-26.541</v>
       </c>
       <c r="X21" s="1" t="n">
         <v>0</v>
@@ -1695,31 +1698,31 @@
       </c>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>-8.75</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="F22" s="1" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G22" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="G22" s="1" t="n">
-        <v>22.4</v>
-      </c>
       <c r="H22" s="1" t="n">
-        <v>-8.949999999999999</v>
+        <v>-3.2</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>-8.550000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>-11.2</v>
+        <v>10.1</v>
       </c>
       <c r="L22" s="1" t="n"/>
       <c r="M22" s="1" t="n">
@@ -1729,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>-8.75</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="Q22" s="1" t="n"/>
       <c r="R22" s="1" t="n"/>
@@ -1746,10 +1749,10 @@
         <v>1</v>
       </c>
       <c r="V22" s="1" t="n">
-        <v>38.096</v>
+        <v>35.1</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>17.455</v>
+        <v>28.459</v>
       </c>
       <c r="X22" s="1" t="n">
         <v>0</v>
@@ -1767,31 +1770,31 @@
       </c>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>6.4</v>
+        <v>-8.75</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>4.4</v>
+        <v>0.4</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>2.1</v>
+        <v>22.4</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>4.2</v>
+        <v>-8.949999999999999</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>8.600000000000001</v>
+        <v>-8.550000000000001</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>1.05</v>
+        <v>11.2</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>-1.05</v>
+        <v>-11.2</v>
       </c>
       <c r="L23" s="1" t="n"/>
       <c r="M23" s="1" t="n">
@@ -1801,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="1" t="n">
-        <v>6.4</v>
+        <v>-8.75</v>
       </c>
       <c r="P23" s="1" t="n">
         <v>0</v>
@@ -1812,22 +1815,22 @@
         <v>32</v>
       </c>
       <c r="T23" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U23" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V23" s="1" t="n">
-        <v>0</v>
+        <v>38.096</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>0</v>
+        <v>-15.537</v>
       </c>
       <c r="X23" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1" t="n"/>
       <c r="AA23" s="1" t="n"/>
@@ -1842,7 +1845,7 @@
         <v>38</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>-9.35</v>
+        <v>-8.75</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>0</v>
@@ -1851,19 +1854,19 @@
         <v>0.4</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>11.4</v>
+        <v>22.4</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>-9.549999999999999</v>
+        <v>-8.949999999999999</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>-9.15</v>
+        <v>-8.550000000000001</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>5.7</v>
+        <v>11.2</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>-5.7</v>
+        <v>-11.2</v>
       </c>
       <c r="L24" s="1" t="n"/>
       <c r="M24" s="1" t="n">
@@ -1873,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="1" t="n">
-        <v>-9.35</v>
+        <v>-8.75</v>
       </c>
       <c r="P24" s="1" t="n">
         <v>0</v>
@@ -1887,19 +1890,19 @@
         <v>1</v>
       </c>
       <c r="U24" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V24" s="1" t="n">
-        <v>32.996</v>
+        <v>38.096</v>
       </c>
       <c r="W24" s="1" t="n">
-        <v>0.959</v>
+        <v>17.455</v>
       </c>
       <c r="X24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y24" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1" t="n"/>
       <c r="AA24" s="1" t="n"/>
@@ -1911,31 +1914,31 @@
       </c>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>-9.35</v>
+        <v>6.4</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>11.4</v>
+        <v>2.1</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>-9.549999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>-9.15</v>
+        <v>8.600000000000001</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>5.7</v>
+        <v>1.05</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>-5.7</v>
+        <v>-1.05</v>
       </c>
       <c r="L25" s="1" t="n"/>
       <c r="M25" s="1" t="n">
@@ -1945,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="1" t="n">
-        <v>-9.35</v>
+        <v>6.4</v>
       </c>
       <c r="P25" s="1" t="n">
         <v>0</v>
@@ -1956,22 +1959,22 @@
         <v>32</v>
       </c>
       <c r="T25" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U25" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V25" s="1" t="n">
-        <v>-32.996</v>
+        <v>0</v>
       </c>
       <c r="W25" s="1" t="n">
-        <v>0.959</v>
+        <v>0</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y25" s="1" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Z25" s="1" t="n"/>
       <c r="AA25" s="1" t="n"/>
@@ -1979,35 +1982,35 @@
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1" t="n"/>
       <c r="C26" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0</v>
+        <v>-9.35</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>-12.35</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>16.9</v>
+        <v>0.4</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>0.9</v>
+        <v>11.4</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>-9.549999999999999</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>-9.15</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>-11.9</v>
+        <v>5.7</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>-12.8</v>
+        <v>-5.7</v>
       </c>
       <c r="L26" s="1" t="n"/>
       <c r="M26" s="1" t="n">
@@ -2017,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>0</v>
+        <v>-9.35</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>-12.35</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="1" t="n"/>
       <c r="R26" s="1" t="n"/>
@@ -2028,22 +2031,22 @@
         <v>32</v>
       </c>
       <c r="T26" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U26" s="1" t="n">
         <v>2</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>0</v>
+        <v>32.996</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>0</v>
+        <v>0.959</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="Z26" s="1" t="n"/>
       <c r="AA26" s="1" t="n"/>
@@ -2051,35 +2054,35 @@
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B27" s="1" t="n"/>
       <c r="C27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>9.25</v>
+        <v>-9.35</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>16.9</v>
+        <v>11.4</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>8.800000000000001</v>
+        <v>-9.549999999999999</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>9.699999999999999</v>
+        <v>-9.15</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>-5.7</v>
       </c>
       <c r="L27" s="1" t="n"/>
       <c r="M27" s="1" t="n">
@@ -2089,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>9.25</v>
+        <v>-9.35</v>
       </c>
       <c r="P27" s="1" t="n">
         <v>0</v>
@@ -2106,16 +2109,16 @@
         <v>3</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>-38</v>
+        <v>-32.996</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>0</v>
+        <v>0.959</v>
       </c>
       <c r="X27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y27" s="1" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z27" s="1" t="n"/>
       <c r="AA27" s="1" t="n"/>
@@ -2123,48 +2126,48 @@
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" s="1" t="n"/>
       <c r="C28" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>0.4</v>
+        <v>-12.35</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>0.4</v>
+        <v>16.9</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>1.55</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>1.95</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>0.6000000000000001</v>
+        <v>-11.9</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0.2</v>
+        <v>-12.8</v>
       </c>
       <c r="L28" s="1" t="n"/>
       <c r="M28" s="1" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>-0.767</v>
+        <v>0</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="P28" s="1" t="n">
-        <v>1.167</v>
+        <v>-12.35</v>
       </c>
       <c r="Q28" s="1" t="n"/>
       <c r="R28" s="1" t="n"/>
@@ -2172,10 +2175,10 @@
         <v>32</v>
       </c>
       <c r="T28" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U28" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V28" s="1" t="n">
         <v>0</v>
@@ -2184,10 +2187,10 @@
         <v>0</v>
       </c>
       <c r="X28" s="1" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="Z28" s="1" t="n"/>
       <c r="AA28" s="1" t="n"/>
@@ -2195,48 +2198,48 @@
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1" t="n"/>
       <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>7.05</v>
+        <v>9.25</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>-2.15</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>1.8</v>
+        <v>16.9</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>5.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>8.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>-1.25</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>-3.05</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="L29" s="1" t="n"/>
       <c r="M29" s="1" t="n">
-        <v>1.063</v>
+        <v>0</v>
       </c>
       <c r="N29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>5.987</v>
+        <v>9.25</v>
       </c>
       <c r="P29" s="1" t="n">
-        <v>-2.15</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="1" t="n"/>
       <c r="R29" s="1" t="n"/>
@@ -2244,22 +2247,22 @@
         <v>32</v>
       </c>
       <c r="T29" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U29" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>0</v>
+        <v>-38</v>
       </c>
       <c r="W29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Z29" s="1" t="n"/>
       <c r="AA29" s="1" t="n"/>
@@ -2267,48 +2270,48 @@
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" s="1" t="n"/>
       <c r="C30" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>7.05</v>
+        <v>1.75</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>-2.15</v>
+        <v>0.4</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>5.5</v>
+        <v>1.55</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>8.6</v>
+        <v>1.95</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>-1.25</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>-3.05</v>
+        <v>0.2</v>
       </c>
       <c r="L30" s="1" t="n"/>
       <c r="M30" s="1" t="n">
-        <v>-0.5629999999999999</v>
+        <v>-0.3</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>0</v>
+        <v>-0.767</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>7.613</v>
+        <v>2.05</v>
       </c>
       <c r="P30" s="1" t="n">
-        <v>-2.15</v>
+        <v>1.167</v>
       </c>
       <c r="Q30" s="1" t="n"/>
       <c r="R30" s="1" t="n"/>
@@ -2339,48 +2342,48 @@
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" s="1" t="n"/>
       <c r="C31" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>12.55</v>
+        <v>0.4</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>15.4</v>
+        <v>0.4</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>-7.7</v>
+        <v>1.55</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>7.7</v>
+        <v>1.95</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>12.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>12.3</v>
+        <v>0.2</v>
       </c>
       <c r="L31" s="1" t="n"/>
       <c r="M31" s="1" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>0</v>
+        <v>-0.789</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="P31" s="1" t="n">
-        <v>12.55</v>
+        <v>1.189</v>
       </c>
       <c r="Q31" s="1" t="n"/>
       <c r="R31" s="1" t="n"/>
@@ -2388,10 +2391,10 @@
         <v>32</v>
       </c>
       <c r="T31" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U31" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V31" s="1" t="n">
         <v>0</v>
@@ -2400,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="X31" s="1" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y31" s="1" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="Z31" s="1" t="n"/>
       <c r="AA31" s="1" t="n"/>
@@ -2411,48 +2414,48 @@
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1" t="n"/>
       <c r="C32" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>-10.6</v>
+        <v>7.05</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>0</v>
+        <v>-2.15</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>15.4</v>
+        <v>1.8</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>-10.85</v>
+        <v>5.5</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>-10.35</v>
+        <v>8.6</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>7.7</v>
+        <v>-1.25</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>-7.7</v>
+        <v>-3.05</v>
       </c>
       <c r="L32" s="1" t="n"/>
       <c r="M32" s="1" t="n">
-        <v>0</v>
+        <v>-0.573</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>-10.6</v>
+        <v>7.622999999999999</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>0</v>
+        <v>-2.16</v>
       </c>
       <c r="Q32" s="1" t="n"/>
       <c r="R32" s="1" t="n"/>
@@ -2460,10 +2463,10 @@
         <v>32</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U32" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V32" s="1" t="n">
         <v>0</v>
@@ -2472,10 +2475,10 @@
         <v>0</v>
       </c>
       <c r="X32" s="1" t="n">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="Y32" s="1" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Z32" s="1" t="n"/>
       <c r="AA32" s="1" t="n"/>
@@ -2483,48 +2486,48 @@
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1" t="n"/>
       <c r="C33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>-1.85</v>
+        <v>7.05</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>-2.15</v>
       </c>
       <c r="F33" s="1" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G33" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="G33" s="1" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H33" s="1" t="n">
-        <v>-2.75</v>
+        <v>5.5</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>9.949999999999999</v>
+        <v>-1.25</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>-3.05</v>
       </c>
       <c r="L33" s="1" t="n"/>
       <c r="M33" s="1" t="n">
-        <v>0</v>
+        <v>-0.573</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>0</v>
+        <v>-0.009999999999999998</v>
       </c>
       <c r="O33" s="1" t="n">
-        <v>-1.85</v>
+        <v>7.622999999999999</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>-2.14</v>
       </c>
       <c r="Q33" s="1" t="n"/>
       <c r="R33" s="1" t="n"/>
@@ -2532,22 +2535,22 @@
         <v>32</v>
       </c>
       <c r="T33" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U33" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>-28.483</v>
+        <v>0</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>-27.5</v>
+        <v>0</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y33" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z33" s="1" t="n"/>
       <c r="AA33" s="1" t="n"/>
@@ -2555,48 +2558,48 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B34" s="1" t="n"/>
       <c r="C34" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>-5.55</v>
+        <v>7.05</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>7.65</v>
+        <v>-2.15</v>
       </c>
       <c r="F34" s="1" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G34" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="G34" s="1" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H34" s="1" t="n">
-        <v>-6.45</v>
+        <v>5.5</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>-4.649999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>8.4</v>
+        <v>-1.25</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>6.9</v>
+        <v>-3.05</v>
       </c>
       <c r="L34" s="1" t="n"/>
       <c r="M34" s="1" t="n">
-        <v>0</v>
+        <v>-0.5529999999999999</v>
       </c>
       <c r="N34" s="1" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O34" s="1" t="n">
-        <v>-5.55</v>
+        <v>7.603</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>7.65</v>
+        <v>-2.16</v>
       </c>
       <c r="Q34" s="1" t="n"/>
       <c r="R34" s="1" t="n"/>
@@ -2604,22 +2607,22 @@
         <v>32</v>
       </c>
       <c r="T34" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U34" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>-6.483</v>
+        <v>0</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>-27.5</v>
+        <v>0</v>
       </c>
       <c r="X34" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y34" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z34" s="1" t="n"/>
       <c r="AA34" s="1" t="n"/>
@@ -2627,48 +2630,48 @@
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B35" s="1" t="n"/>
       <c r="C35" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>-3.7</v>
+        <v>7.05</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>7.65</v>
+        <v>-2.15</v>
       </c>
       <c r="F35" s="1" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G35" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="G35" s="1" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H35" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>-2.8</v>
+        <v>8.6</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>8.4</v>
+        <v>-1.25</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>6.9</v>
+        <v>-3.05</v>
       </c>
       <c r="L35" s="1" t="n"/>
       <c r="M35" s="1" t="n">
-        <v>0</v>
+        <v>-0.5529999999999999</v>
       </c>
       <c r="N35" s="1" t="n">
-        <v>0</v>
+        <v>-0.009999999999999998</v>
       </c>
       <c r="O35" s="1" t="n">
-        <v>-3.7</v>
+        <v>7.603</v>
       </c>
       <c r="P35" s="1" t="n">
-        <v>7.65</v>
+        <v>-2.14</v>
       </c>
       <c r="Q35" s="1" t="n"/>
       <c r="R35" s="1" t="n"/>
@@ -2676,22 +2679,22 @@
         <v>32</v>
       </c>
       <c r="T35" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U35" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V35" s="1" t="n">
-        <v>-17.483</v>
+        <v>0</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>-27.5</v>
+        <v>0</v>
       </c>
       <c r="X35" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y35" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z35" s="1" t="n"/>
       <c r="AA35" s="1" t="n"/>
@@ -2699,48 +2702,48 @@
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1" t="n"/>
       <c r="C36" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>-1.85</v>
+        <v>7.05</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>7.65</v>
+        <v>-2.15</v>
       </c>
       <c r="F36" s="1" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G36" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="G36" s="1" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H36" s="1" t="n">
-        <v>-2.75</v>
+        <v>5.5</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>8.4</v>
+        <v>-1.25</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>6.9</v>
+        <v>-3.05</v>
       </c>
       <c r="L36" s="1" t="n"/>
       <c r="M36" s="1" t="n">
-        <v>0</v>
+        <v>-0.5629999999999999</v>
       </c>
       <c r="N36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O36" s="1" t="n">
-        <v>-1.85</v>
+        <v>7.613</v>
       </c>
       <c r="P36" s="1" t="n">
-        <v>7.65</v>
+        <v>-2.15</v>
       </c>
       <c r="Q36" s="1" t="n"/>
       <c r="R36" s="1" t="n"/>
@@ -2748,22 +2751,22 @@
         <v>32</v>
       </c>
       <c r="T36" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U36" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>-17.483</v>
+        <v>0</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>-16.5</v>
+        <v>0</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y36" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z36" s="1" t="n"/>
       <c r="AA36" s="1" t="n"/>
@@ -2771,48 +2774,48 @@
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1" t="n"/>
       <c r="C37" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>0</v>
+        <v>7.05</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>7.65</v>
+        <v>-2.15</v>
       </c>
       <c r="F37" s="1" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G37" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="G37" s="1" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H37" s="1" t="n">
-        <v>-0.9</v>
+        <v>5.5</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>0.9</v>
+        <v>8.6</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>8.4</v>
+        <v>-1.25</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>6.9</v>
+        <v>-3.05</v>
       </c>
       <c r="L37" s="1" t="n"/>
       <c r="M37" s="1" t="n">
-        <v>0</v>
+        <v>1.063</v>
       </c>
       <c r="N37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O37" s="1" t="n">
-        <v>0</v>
+        <v>5.987</v>
       </c>
       <c r="P37" s="1" t="n">
-        <v>7.65</v>
+        <v>-2.15</v>
       </c>
       <c r="Q37" s="1" t="n"/>
       <c r="R37" s="1" t="n"/>
@@ -2820,22 +2823,22 @@
         <v>32</v>
       </c>
       <c r="T37" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U37" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V37" s="1" t="n">
-        <v>-6.483</v>
+        <v>0</v>
       </c>
       <c r="W37" s="1" t="n">
-        <v>-16.5</v>
+        <v>0</v>
       </c>
       <c r="X37" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y37" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z37" s="1" t="n"/>
       <c r="AA37" s="1" t="n"/>
@@ -2843,17 +2846,17 @@
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B38" s="1" t="n"/>
       <c r="C38" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>7.65</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>1.8</v>
@@ -2862,16 +2865,16 @@
         <v>1.5</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>2.75</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>8.4</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>6.9</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="L38" s="1" t="n"/>
       <c r="M38" s="1" t="n">
@@ -2881,10 +2884,10 @@
         <v>0</v>
       </c>
       <c r="O38" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="P38" s="1" t="n">
-        <v>7.65</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q38" s="1" t="n"/>
       <c r="R38" s="1" t="n"/>
@@ -2898,10 +2901,10 @@
         <v>1</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>-6.483</v>
+        <v>-28.483</v>
       </c>
       <c r="W38" s="1" t="n">
-        <v>-5.5</v>
+        <v>-27.5</v>
       </c>
       <c r="X38" s="1" t="n">
         <v>0</v>
@@ -2915,14 +2918,14 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1" t="n"/>
       <c r="C39" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>3.7</v>
+        <v>-5.55</v>
       </c>
       <c r="E39" s="1" t="n">
         <v>7.65</v>
@@ -2934,10 +2937,10 @@
         <v>1.5</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>2.8</v>
+        <v>-6.45</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>-4.649999999999999</v>
       </c>
       <c r="J39" s="1" t="n">
         <v>8.4</v>
@@ -2953,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="1" t="n">
-        <v>3.7</v>
+        <v>-5.55</v>
       </c>
       <c r="P39" s="1" t="n">
         <v>7.65</v>
@@ -2970,10 +2973,10 @@
         <v>1</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>-17.483</v>
+        <v>-6.483</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>-5.5</v>
+        <v>-27.5</v>
       </c>
       <c r="X39" s="1" t="n">
         <v>0</v>
@@ -2987,17 +2990,17 @@
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1" t="n"/>
       <c r="C40" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>-5.55</v>
+        <v>-3.7</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>6.1</v>
+        <v>7.65</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>1.8</v>
@@ -3006,16 +3009,16 @@
         <v>1.5</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>-6.45</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>-4.649999999999999</v>
+        <v>-2.8</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>6.85</v>
+        <v>8.4</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>5.35</v>
+        <v>6.9</v>
       </c>
       <c r="L40" s="1" t="n"/>
       <c r="M40" s="1" t="n">
@@ -3025,10 +3028,10 @@
         <v>0</v>
       </c>
       <c r="O40" s="1" t="n">
-        <v>-5.55</v>
+        <v>-3.7</v>
       </c>
       <c r="P40" s="1" t="n">
-        <v>6.1</v>
+        <v>7.65</v>
       </c>
       <c r="Q40" s="1" t="n"/>
       <c r="R40" s="1" t="n"/>
@@ -3042,10 +3045,10 @@
         <v>1</v>
       </c>
       <c r="V40" s="1" t="n">
-        <v>-28.483</v>
+        <v>-17.483</v>
       </c>
       <c r="W40" s="1" t="n">
-        <v>-5.5</v>
+        <v>-27.5</v>
       </c>
       <c r="X40" s="1" t="n">
         <v>0</v>
@@ -3059,17 +3062,17 @@
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1" t="n"/>
       <c r="C41" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>6.1</v>
+        <v>7.65</v>
       </c>
       <c r="F41" s="1" t="n">
         <v>1.8</v>
@@ -3078,16 +3081,16 @@
         <v>1.5</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>-2.8</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>6.85</v>
+        <v>8.4</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>5.35</v>
+        <v>6.9</v>
       </c>
       <c r="L41" s="1" t="n"/>
       <c r="M41" s="1" t="n">
@@ -3097,10 +3100,10 @@
         <v>0</v>
       </c>
       <c r="O41" s="1" t="n">
-        <v>-3.7</v>
+        <v>-1.85</v>
       </c>
       <c r="P41" s="1" t="n">
-        <v>6.1</v>
+        <v>7.65</v>
       </c>
       <c r="Q41" s="1" t="n"/>
       <c r="R41" s="1" t="n"/>
@@ -3114,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="V41" s="1" t="n">
-        <v>-28.483</v>
+        <v>-17.483</v>
       </c>
       <c r="W41" s="1" t="n">
         <v>-16.5</v>
@@ -3131,17 +3134,17 @@
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1" t="n"/>
       <c r="C42" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>6.1</v>
+        <v>7.65</v>
       </c>
       <c r="F42" s="1" t="n">
         <v>1.8</v>
@@ -3150,16 +3153,16 @@
         <v>1.5</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>2.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>6.85</v>
+        <v>8.4</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>5.35</v>
+        <v>6.9</v>
       </c>
       <c r="L42" s="1" t="n"/>
       <c r="M42" s="1" t="n">
@@ -3169,10 +3172,10 @@
         <v>0</v>
       </c>
       <c r="O42" s="1" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="P42" s="1" t="n">
-        <v>6.1</v>
+        <v>7.65</v>
       </c>
       <c r="Q42" s="1" t="n"/>
       <c r="R42" s="1" t="n"/>
@@ -3186,10 +3189,10 @@
         <v>1</v>
       </c>
       <c r="V42" s="1" t="n">
-        <v>-28.483</v>
+        <v>-6.483</v>
       </c>
       <c r="W42" s="1" t="n">
-        <v>5.5</v>
+        <v>-16.5</v>
       </c>
       <c r="X42" s="1" t="n">
         <v>0</v>
@@ -3203,17 +3206,17 @@
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1" t="n"/>
       <c r="C43" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>-5.55</v>
+        <v>1.85</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>4.55</v>
+        <v>7.65</v>
       </c>
       <c r="F43" s="1" t="n">
         <v>1.8</v>
@@ -3222,16 +3225,16 @@
         <v>1.5</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>-6.45</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>-4.649999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>5.3</v>
+        <v>8.4</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>3.8</v>
+        <v>6.9</v>
       </c>
       <c r="L43" s="1" t="n"/>
       <c r="M43" s="1" t="n">
@@ -3241,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="O43" s="1" t="n">
-        <v>-5.55</v>
+        <v>1.85</v>
       </c>
       <c r="P43" s="1" t="n">
-        <v>4.55</v>
+        <v>7.65</v>
       </c>
       <c r="Q43" s="1" t="n"/>
       <c r="R43" s="1" t="n"/>
@@ -3258,10 +3261,10 @@
         <v>1</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>-28.483</v>
+        <v>-6.483</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>16.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X43" s="1" t="n">
         <v>0</v>
@@ -3275,17 +3278,17 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44" s="1" t="n"/>
       <c r="C44" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>3.7</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>4.55</v>
+        <v>7.65</v>
       </c>
       <c r="F44" s="1" t="n">
         <v>1.8</v>
@@ -3300,10 +3303,10 @@
         <v>4.600000000000001</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>5.3</v>
+        <v>8.4</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>3.8</v>
+        <v>6.9</v>
       </c>
       <c r="L44" s="1" t="n"/>
       <c r="M44" s="1" t="n">
@@ -3316,7 +3319,7 @@
         <v>3.7</v>
       </c>
       <c r="P44" s="1" t="n">
-        <v>4.55</v>
+        <v>7.65</v>
       </c>
       <c r="Q44" s="1" t="n"/>
       <c r="R44" s="1" t="n"/>
@@ -3330,10 +3333,10 @@
         <v>1</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>-28.483</v>
+        <v>-17.483</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>27.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X44" s="1" t="n">
         <v>0</v>
@@ -3347,17 +3350,17 @@
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B45" s="1" t="n"/>
       <c r="C45" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>-5.55</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>1.8</v>
@@ -3372,10 +3375,10 @@
         <v>-4.649999999999999</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>3.75</v>
+        <v>6.85</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>2.25</v>
+        <v>5.35</v>
       </c>
       <c r="L45" s="1" t="n"/>
       <c r="M45" s="1" t="n">
@@ -3388,7 +3391,7 @@
         <v>-5.55</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="Q45" s="1" t="n"/>
       <c r="R45" s="1" t="n"/>
@@ -3402,10 +3405,10 @@
         <v>1</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>-17.483</v>
+        <v>-28.483</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>27.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X45" s="1" t="n">
         <v>0</v>
@@ -3419,17 +3422,17 @@
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B46" s="1" t="n"/>
       <c r="C46" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>1.8</v>
@@ -3438,16 +3441,16 @@
         <v>1.5</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>3.75</v>
+        <v>6.85</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>2.25</v>
+        <v>5.35</v>
       </c>
       <c r="L46" s="1" t="n"/>
       <c r="M46" s="1" t="n">
@@ -3457,10 +3460,10 @@
         <v>0</v>
       </c>
       <c r="O46" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="Q46" s="1" t="n"/>
       <c r="R46" s="1" t="n"/>
@@ -3474,10 +3477,10 @@
         <v>1</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>-6.483</v>
+        <v>-28.483</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>27.5</v>
+        <v>-16.5</v>
       </c>
       <c r="X46" s="1" t="n">
         <v>0</v>
@@ -3491,17 +3494,17 @@
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1" t="n"/>
       <c r="C47" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="F47" s="1" t="n">
         <v>1.8</v>
@@ -3510,16 +3513,16 @@
         <v>1.5</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>2.75</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>3.75</v>
+        <v>6.85</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>2.25</v>
+        <v>5.35</v>
       </c>
       <c r="L47" s="1" t="n"/>
       <c r="M47" s="1" t="n">
@@ -3529,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="O47" s="1" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="Q47" s="1" t="n"/>
       <c r="R47" s="1" t="n"/>
@@ -3546,10 +3549,10 @@
         <v>1</v>
       </c>
       <c r="V47" s="1" t="n">
-        <v>-6.483</v>
+        <v>-28.483</v>
       </c>
       <c r="W47" s="1" t="n">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="X47" s="1" t="n">
         <v>0</v>
@@ -3563,17 +3566,17 @@
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="n"/>
       <c r="C48" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>3.7</v>
+        <v>-5.55</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>3</v>
+        <v>4.55</v>
       </c>
       <c r="F48" s="1" t="n">
         <v>1.8</v>
@@ -3582,16 +3585,16 @@
         <v>1.5</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>2.8</v>
+        <v>-6.45</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>-4.649999999999999</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>3.75</v>
+        <v>5.3</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="L48" s="1" t="n"/>
       <c r="M48" s="1" t="n">
@@ -3601,10 +3604,10 @@
         <v>0</v>
       </c>
       <c r="O48" s="1" t="n">
-        <v>3.7</v>
+        <v>-5.55</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>3</v>
+        <v>4.55</v>
       </c>
       <c r="Q48" s="1" t="n"/>
       <c r="R48" s="1" t="n"/>
@@ -3618,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>-17.483</v>
+        <v>-28.483</v>
       </c>
       <c r="W48" s="1" t="n">
         <v>16.5</v>
@@ -3635,17 +3638,17 @@
     </row>
     <row r="49" spans="1:28">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1" t="n"/>
       <c r="C49" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>-0.9</v>
+        <v>3.7</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>-1.45</v>
+        <v>4.55</v>
       </c>
       <c r="F49" s="1" t="n">
         <v>1.8</v>
@@ -3654,16 +3657,16 @@
         <v>1.5</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>-1.8</v>
+        <v>2.8</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>0</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>-0.7</v>
+        <v>5.3</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>-2.2</v>
+        <v>3.8</v>
       </c>
       <c r="L49" s="1" t="n"/>
       <c r="M49" s="1" t="n">
@@ -3673,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="O49" s="1" t="n">
-        <v>-0.9</v>
+        <v>3.7</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>-1.45</v>
+        <v>4.55</v>
       </c>
       <c r="Q49" s="1" t="n"/>
       <c r="R49" s="1" t="n"/>
@@ -3690,10 +3693,10 @@
         <v>1</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>-17.483</v>
+        <v>-28.483</v>
       </c>
       <c r="W49" s="1" t="n">
-        <v>5.5</v>
+        <v>27.5</v>
       </c>
       <c r="X49" s="1" t="n">
         <v>0</v>
@@ -3707,17 +3710,17 @@
     </row>
     <row r="50" spans="1:28">
       <c r="A50" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1" t="n"/>
       <c r="C50" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>0.9</v>
+        <v>-5.55</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>-1.45</v>
+        <v>3</v>
       </c>
       <c r="F50" s="1" t="n">
         <v>1.8</v>
@@ -3726,16 +3729,16 @@
         <v>1.5</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>0</v>
+        <v>-6.45</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>1.8</v>
+        <v>-4.649999999999999</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>-0.7</v>
+        <v>3.75</v>
       </c>
       <c r="K50" s="1" t="n">
-        <v>-2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L50" s="1" t="n"/>
       <c r="M50" s="1" t="n">
@@ -3745,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="O50" s="1" t="n">
-        <v>0.9</v>
+        <v>-5.55</v>
       </c>
       <c r="P50" s="1" t="n">
-        <v>-1.45</v>
+        <v>3</v>
       </c>
       <c r="Q50" s="1" t="n"/>
       <c r="R50" s="1" t="n"/>
@@ -3762,10 +3765,10 @@
         <v>1</v>
       </c>
       <c r="V50" s="1" t="n">
-        <v>-6.483</v>
+        <v>-17.483</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>5.5</v>
+        <v>27.5</v>
       </c>
       <c r="X50" s="1" t="n">
         <v>0</v>
@@ -3779,17 +3782,17 @@
     </row>
     <row r="51" spans="1:28">
       <c r="A51" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B51" s="1" t="n"/>
       <c r="C51" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>1.8</v>
@@ -3798,16 +3801,16 @@
         <v>1.5</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>-1.8</v>
+        <v>-0.9</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J51" s="1" t="n">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="K51" s="1" t="n">
-        <v>0.7</v>
+        <v>2.25</v>
       </c>
       <c r="L51" s="1" t="n"/>
       <c r="M51" s="1" t="n">
@@ -3817,10 +3820,10 @@
         <v>0</v>
       </c>
       <c r="O51" s="1" t="n">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="P51" s="1" t="n">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Q51" s="1" t="n"/>
       <c r="R51" s="1" t="n"/>
@@ -3834,10 +3837,10 @@
         <v>1</v>
       </c>
       <c r="V51" s="1" t="n">
-        <v>4.517</v>
+        <v>-6.483</v>
       </c>
       <c r="W51" s="1" t="n">
-        <v>5.5</v>
+        <v>27.5</v>
       </c>
       <c r="X51" s="1" t="n">
         <v>0</v>
@@ -3851,17 +3854,17 @@
     </row>
     <row r="52" spans="1:28">
       <c r="A52" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B52" s="1" t="n"/>
       <c r="C52" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>0.9</v>
+        <v>1.85</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="F52" s="1" t="n">
         <v>1.8</v>
@@ -3870,16 +3873,16 @@
         <v>1.5</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>0</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="J52" s="1" t="n">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="K52" s="1" t="n">
-        <v>0.7</v>
+        <v>2.25</v>
       </c>
       <c r="L52" s="1" t="n"/>
       <c r="M52" s="1" t="n">
@@ -3889,10 +3892,10 @@
         <v>0</v>
       </c>
       <c r="O52" s="1" t="n">
-        <v>0.9</v>
+        <v>1.85</v>
       </c>
       <c r="P52" s="1" t="n">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Q52" s="1" t="n"/>
       <c r="R52" s="1" t="n"/>
@@ -3906,10 +3909,10 @@
         <v>1</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>15.517</v>
+        <v>-6.483</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>5.5</v>
+        <v>16.5</v>
       </c>
       <c r="X52" s="1" t="n">
         <v>0</v>
@@ -3923,17 +3926,17 @@
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1" t="n"/>
       <c r="C53" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>-5.55</v>
+        <v>3.7</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="F53" s="1" t="n">
         <v>1.8</v>
@@ -3942,16 +3945,16 @@
         <v>1.5</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>-6.45</v>
+        <v>2.8</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>-4.649999999999999</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J53" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="K53" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>2.25</v>
       </c>
       <c r="L53" s="1" t="n"/>
       <c r="M53" s="1" t="n">
@@ -3961,10 +3964,10 @@
         <v>0</v>
       </c>
       <c r="O53" s="1" t="n">
-        <v>-5.55</v>
+        <v>3.7</v>
       </c>
       <c r="P53" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="Q53" s="1" t="n"/>
       <c r="R53" s="1" t="n"/>
@@ -3978,7 +3981,7 @@
         <v>1</v>
       </c>
       <c r="V53" s="1" t="n">
-        <v>15.517</v>
+        <v>-17.483</v>
       </c>
       <c r="W53" s="1" t="n">
         <v>16.5</v>
@@ -3995,17 +3998,17 @@
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B54" s="1" t="n"/>
       <c r="C54" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>-3.7</v>
+        <v>-0.9</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>-1.45</v>
       </c>
       <c r="F54" s="1" t="n">
         <v>1.8</v>
@@ -4014,16 +4017,16 @@
         <v>1.5</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>-1.8</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>-2.8</v>
+        <v>0</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>-0.7</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>-2.2</v>
       </c>
       <c r="L54" s="1" t="n"/>
       <c r="M54" s="1" t="n">
@@ -4033,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="O54" s="1" t="n">
-        <v>-3.7</v>
+        <v>-0.9</v>
       </c>
       <c r="P54" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>-1.45</v>
       </c>
       <c r="Q54" s="1" t="n"/>
       <c r="R54" s="1" t="n"/>
@@ -4050,10 +4053,10 @@
         <v>1</v>
       </c>
       <c r="V54" s="1" t="n">
-        <v>4.517</v>
+        <v>-17.483</v>
       </c>
       <c r="W54" s="1" t="n">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="X54" s="1" t="n">
         <v>0</v>
@@ -4067,17 +4070,17 @@
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B55" s="1" t="n"/>
       <c r="C55" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>-1.85</v>
+        <v>0.9</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>-1.45</v>
       </c>
       <c r="F55" s="1" t="n">
         <v>1.8</v>
@@ -4086,16 +4089,16 @@
         <v>1.5</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>-0.7</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>-2.2</v>
       </c>
       <c r="L55" s="1" t="n"/>
       <c r="M55" s="1" t="n">
@@ -4105,10 +4108,10 @@
         <v>0</v>
       </c>
       <c r="O55" s="1" t="n">
-        <v>-1.85</v>
+        <v>0.9</v>
       </c>
       <c r="P55" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>-1.45</v>
       </c>
       <c r="Q55" s="1" t="n"/>
       <c r="R55" s="1" t="n"/>
@@ -4122,10 +4125,10 @@
         <v>1</v>
       </c>
       <c r="V55" s="1" t="n">
-        <v>4.517</v>
+        <v>-6.483</v>
       </c>
       <c r="W55" s="1" t="n">
-        <v>27.5</v>
+        <v>5.5</v>
       </c>
       <c r="X55" s="1" t="n">
         <v>0</v>
@@ -4139,17 +4142,17 @@
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B56" s="1" t="n"/>
       <c r="C56" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>3.7</v>
+        <v>-0.9</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="F56" s="1" t="n">
         <v>1.8</v>
@@ -4158,16 +4161,16 @@
         <v>1.5</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>2.8</v>
+        <v>-1.8</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="L56" s="1" t="n"/>
       <c r="M56" s="1" t="n">
@@ -4177,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="O56" s="1" t="n">
-        <v>3.7</v>
+        <v>-0.9</v>
       </c>
       <c r="P56" s="1" t="n">
-        <v>-9.199999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="Q56" s="1" t="n"/>
       <c r="R56" s="1" t="n"/>
@@ -4194,10 +4197,10 @@
         <v>1</v>
       </c>
       <c r="V56" s="1" t="n">
-        <v>15.517</v>
+        <v>4.517</v>
       </c>
       <c r="W56" s="1" t="n">
-        <v>27.5</v>
+        <v>5.5</v>
       </c>
       <c r="X56" s="1" t="n">
         <v>0</v>
@@ -4211,17 +4214,17 @@
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B57" s="1" t="n"/>
       <c r="C57" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>-5.55</v>
+        <v>0.9</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>-7.65</v>
+        <v>1.45</v>
       </c>
       <c r="F57" s="1" t="n">
         <v>1.8</v>
@@ -4230,16 +4233,16 @@
         <v>1.5</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>-6.45</v>
+        <v>0</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>-4.649999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>-6.9</v>
+        <v>2.2</v>
       </c>
       <c r="K57" s="1" t="n">
-        <v>-8.4</v>
+        <v>0.7</v>
       </c>
       <c r="L57" s="1" t="n"/>
       <c r="M57" s="1" t="n">
@@ -4249,10 +4252,10 @@
         <v>0</v>
       </c>
       <c r="O57" s="1" t="n">
-        <v>-5.55</v>
+        <v>0.9</v>
       </c>
       <c r="P57" s="1" t="n">
-        <v>-7.65</v>
+        <v>1.45</v>
       </c>
       <c r="Q57" s="1" t="n"/>
       <c r="R57" s="1" t="n"/>
@@ -4266,10 +4269,10 @@
         <v>1</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>26.517</v>
+        <v>15.517</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>27.5</v>
+        <v>5.5</v>
       </c>
       <c r="X57" s="1" t="n">
         <v>0</v>
@@ -4283,17 +4286,17 @@
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B58" s="1" t="n"/>
       <c r="C58" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>3.7</v>
+        <v>-5.55</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>-7.65</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F58" s="1" t="n">
         <v>1.8</v>
@@ -4302,16 +4305,16 @@
         <v>1.5</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>2.8</v>
+        <v>-6.45</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>-4.649999999999999</v>
       </c>
       <c r="J58" s="1" t="n">
-        <v>-6.9</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K58" s="1" t="n">
-        <v>-8.4</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="L58" s="1" t="n"/>
       <c r="M58" s="1" t="n">
@@ -4321,10 +4324,10 @@
         <v>0</v>
       </c>
       <c r="O58" s="1" t="n">
-        <v>3.7</v>
+        <v>-5.55</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>-7.65</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="Q58" s="1" t="n"/>
       <c r="R58" s="1" t="n"/>
@@ -4338,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="V58" s="1" t="n">
-        <v>26.517</v>
+        <v>15.517</v>
       </c>
       <c r="W58" s="1" t="n">
         <v>16.5</v>
@@ -4355,17 +4358,17 @@
     </row>
     <row r="59" spans="1:28">
       <c r="A59" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B59" s="1" t="n"/>
       <c r="C59" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>-5.55</v>
+        <v>-3.7</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>-6.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F59" s="1" t="n">
         <v>1.8</v>
@@ -4374,16 +4377,16 @@
         <v>1.5</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>-6.45</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>-4.649999999999999</v>
+        <v>-2.8</v>
       </c>
       <c r="J59" s="1" t="n">
-        <v>-5.35</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K59" s="1" t="n">
-        <v>-6.85</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="L59" s="1" t="n"/>
       <c r="M59" s="1" t="n">
@@ -4393,10 +4396,10 @@
         <v>0</v>
       </c>
       <c r="O59" s="1" t="n">
-        <v>-5.55</v>
+        <v>-3.7</v>
       </c>
       <c r="P59" s="1" t="n">
-        <v>-6.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="Q59" s="1" t="n"/>
       <c r="R59" s="1" t="n"/>
@@ -4410,10 +4413,10 @@
         <v>1</v>
       </c>
       <c r="V59" s="1" t="n">
-        <v>26.517</v>
+        <v>4.517</v>
       </c>
       <c r="W59" s="1" t="n">
-        <v>5.5</v>
+        <v>16.5</v>
       </c>
       <c r="X59" s="1" t="n">
         <v>0</v>
@@ -4427,17 +4430,17 @@
     </row>
     <row r="60" spans="1:28">
       <c r="A60" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B60" s="1" t="n"/>
       <c r="C60" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>-6.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F60" s="1" t="n">
         <v>1.8</v>
@@ -4446,16 +4449,16 @@
         <v>1.5</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>-2.75</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>2.75</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>-5.35</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K60" s="1" t="n">
-        <v>-6.85</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="L60" s="1" t="n"/>
       <c r="M60" s="1" t="n">
@@ -4465,10 +4468,10 @@
         <v>0</v>
       </c>
       <c r="O60" s="1" t="n">
-        <v>1.85</v>
+        <v>-1.85</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>-6.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="Q60" s="1" t="n"/>
       <c r="R60" s="1" t="n"/>
@@ -4482,10 +4485,10 @@
         <v>1</v>
       </c>
       <c r="V60" s="1" t="n">
-        <v>26.517</v>
+        <v>4.517</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>-16.5</v>
+        <v>27.5</v>
       </c>
       <c r="X60" s="1" t="n">
         <v>0</v>
@@ -4499,17 +4502,17 @@
     </row>
     <row r="61" spans="1:28">
       <c r="A61" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B61" s="1" t="n"/>
       <c r="C61" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>3.7</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>-6.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="F61" s="1" t="n">
         <v>1.8</v>
@@ -4524,10 +4527,10 @@
         <v>4.600000000000001</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>-5.35</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="K61" s="1" t="n">
-        <v>-6.85</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="L61" s="1" t="n"/>
       <c r="M61" s="1" t="n">
@@ -4540,7 +4543,7 @@
         <v>3.7</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>-6.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="Q61" s="1" t="n"/>
       <c r="R61" s="1" t="n"/>
@@ -4554,10 +4557,10 @@
         <v>1</v>
       </c>
       <c r="V61" s="1" t="n">
-        <v>26.517</v>
+        <v>15.517</v>
       </c>
       <c r="W61" s="1" t="n">
-        <v>-5.5</v>
+        <v>27.5</v>
       </c>
       <c r="X61" s="1" t="n">
         <v>0</v>
@@ -4571,17 +4574,17 @@
     </row>
     <row r="62" spans="1:28">
       <c r="A62" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B62" s="1" t="n"/>
       <c r="C62" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>-5.55</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>-4.55</v>
+        <v>-7.65</v>
       </c>
       <c r="F62" s="1" t="n">
         <v>1.8</v>
@@ -4596,10 +4599,10 @@
         <v>-4.649999999999999</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>-3.8</v>
+        <v>-6.9</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>-5.3</v>
+        <v>-8.4</v>
       </c>
       <c r="L62" s="1" t="n"/>
       <c r="M62" s="1" t="n">
@@ -4612,7 +4615,7 @@
         <v>-5.55</v>
       </c>
       <c r="P62" s="1" t="n">
-        <v>-4.55</v>
+        <v>-7.65</v>
       </c>
       <c r="Q62" s="1" t="n"/>
       <c r="R62" s="1" t="n"/>
@@ -4626,10 +4629,10 @@
         <v>1</v>
       </c>
       <c r="V62" s="1" t="n">
-        <v>15.517</v>
+        <v>26.517</v>
       </c>
       <c r="W62" s="1" t="n">
-        <v>-5.5</v>
+        <v>27.5</v>
       </c>
       <c r="X62" s="1" t="n">
         <v>0</v>
@@ -4643,17 +4646,17 @@
     </row>
     <row r="63" spans="1:28">
       <c r="A63" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B63" s="1" t="n"/>
       <c r="C63" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>-3.7</v>
+        <v>3.7</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>-4.55</v>
+        <v>-7.65</v>
       </c>
       <c r="F63" s="1" t="n">
         <v>1.8</v>
@@ -4662,16 +4665,16 @@
         <v>1.5</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>-4.600000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>-2.8</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>-3.8</v>
+        <v>-6.9</v>
       </c>
       <c r="K63" s="1" t="n">
-        <v>-5.3</v>
+        <v>-8.4</v>
       </c>
       <c r="L63" s="1" t="n"/>
       <c r="M63" s="1" t="n">
@@ -4681,10 +4684,10 @@
         <v>0</v>
       </c>
       <c r="O63" s="1" t="n">
-        <v>-3.7</v>
+        <v>3.7</v>
       </c>
       <c r="P63" s="1" t="n">
-        <v>-4.55</v>
+        <v>-7.65</v>
       </c>
       <c r="Q63" s="1" t="n"/>
       <c r="R63" s="1" t="n"/>
@@ -4698,10 +4701,10 @@
         <v>1</v>
       </c>
       <c r="V63" s="1" t="n">
-        <v>4.517</v>
+        <v>26.517</v>
       </c>
       <c r="W63" s="1" t="n">
-        <v>-5.5</v>
+        <v>16.5</v>
       </c>
       <c r="X63" s="1" t="n">
         <v>0</v>
@@ -4715,17 +4718,17 @@
     </row>
     <row r="64" spans="1:28">
       <c r="A64" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B64" s="1" t="n"/>
       <c r="C64" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>-1.85</v>
+        <v>-5.55</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>-4.55</v>
+        <v>-6.1</v>
       </c>
       <c r="F64" s="1" t="n">
         <v>1.8</v>
@@ -4734,16 +4737,16 @@
         <v>1.5</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>-2.75</v>
+        <v>-6.45</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>-0.9500000000000001</v>
+        <v>-4.649999999999999</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>-3.8</v>
+        <v>-5.35</v>
       </c>
       <c r="K64" s="1" t="n">
-        <v>-5.3</v>
+        <v>-6.85</v>
       </c>
       <c r="L64" s="1" t="n"/>
       <c r="M64" s="1" t="n">
@@ -4753,10 +4756,10 @@
         <v>0</v>
       </c>
       <c r="O64" s="1" t="n">
-        <v>-1.85</v>
+        <v>-5.55</v>
       </c>
       <c r="P64" s="1" t="n">
-        <v>-4.55</v>
+        <v>-6.1</v>
       </c>
       <c r="Q64" s="1" t="n"/>
       <c r="R64" s="1" t="n"/>
@@ -4770,10 +4773,10 @@
         <v>1</v>
       </c>
       <c r="V64" s="1" t="n">
-        <v>4.517</v>
+        <v>26.517</v>
       </c>
       <c r="W64" s="1" t="n">
-        <v>-16.5</v>
+        <v>5.5</v>
       </c>
       <c r="X64" s="1" t="n">
         <v>0</v>
@@ -4787,17 +4790,17 @@
     </row>
     <row r="65" spans="1:28">
       <c r="A65" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B65" s="1" t="n"/>
       <c r="C65" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>-4.55</v>
+        <v>-6.1</v>
       </c>
       <c r="F65" s="1" t="n">
         <v>1.8</v>
@@ -4806,16 +4809,16 @@
         <v>1.5</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>-0.9</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>0.9</v>
+        <v>2.75</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>-3.8</v>
+        <v>-5.35</v>
       </c>
       <c r="K65" s="1" t="n">
-        <v>-5.3</v>
+        <v>-6.85</v>
       </c>
       <c r="L65" s="1" t="n"/>
       <c r="M65" s="1" t="n">
@@ -4825,10 +4828,10 @@
         <v>0</v>
       </c>
       <c r="O65" s="1" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="P65" s="1" t="n">
-        <v>-4.55</v>
+        <v>-6.1</v>
       </c>
       <c r="Q65" s="1" t="n"/>
       <c r="R65" s="1" t="n"/>
@@ -4842,7 +4845,7 @@
         <v>1</v>
       </c>
       <c r="V65" s="1" t="n">
-        <v>15.517</v>
+        <v>26.517</v>
       </c>
       <c r="W65" s="1" t="n">
         <v>-16.5</v>
@@ -4859,17 +4862,17 @@
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B66" s="1" t="n"/>
       <c r="C66" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>-4.55</v>
+        <v>-6.1</v>
       </c>
       <c r="F66" s="1" t="n">
         <v>1.8</v>
@@ -4878,16 +4881,16 @@
         <v>1.5</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>0.9500000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>2.75</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>-3.8</v>
+        <v>-5.35</v>
       </c>
       <c r="K66" s="1" t="n">
-        <v>-5.3</v>
+        <v>-6.85</v>
       </c>
       <c r="L66" s="1" t="n"/>
       <c r="M66" s="1" t="n">
@@ -4897,10 +4900,10 @@
         <v>0</v>
       </c>
       <c r="O66" s="1" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="P66" s="1" t="n">
-        <v>-4.55</v>
+        <v>-6.1</v>
       </c>
       <c r="Q66" s="1" t="n"/>
       <c r="R66" s="1" t="n"/>
@@ -4914,10 +4917,10 @@
         <v>1</v>
       </c>
       <c r="V66" s="1" t="n">
-        <v>15.517</v>
+        <v>26.517</v>
       </c>
       <c r="W66" s="1" t="n">
-        <v>-27.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X66" s="1" t="n">
         <v>0</v>
@@ -4931,14 +4934,14 @@
     </row>
     <row r="67" spans="1:28">
       <c r="A67" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B67" s="1" t="n"/>
       <c r="C67" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>3.7</v>
+        <v>-5.55</v>
       </c>
       <c r="E67" s="1" t="n">
         <v>-4.55</v>
@@ -4950,10 +4953,10 @@
         <v>1.5</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>2.8</v>
+        <v>-6.45</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>4.600000000000001</v>
+        <v>-4.649999999999999</v>
       </c>
       <c r="J67" s="1" t="n">
         <v>-3.8</v>
@@ -4969,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="1" t="n">
-        <v>3.7</v>
+        <v>-5.55</v>
       </c>
       <c r="P67" s="1" t="n">
         <v>-4.55</v>
@@ -4986,10 +4989,10 @@
         <v>1</v>
       </c>
       <c r="V67" s="1" t="n">
-        <v>4.517</v>
+        <v>15.517</v>
       </c>
       <c r="W67" s="1" t="n">
-        <v>-27.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X67" s="1" t="n">
         <v>0</v>
@@ -5003,17 +5006,17 @@
     </row>
     <row r="68" spans="1:28">
       <c r="A68" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B68" s="1" t="n"/>
       <c r="C68" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>-3</v>
+        <v>-4.55</v>
       </c>
       <c r="F68" s="1" t="n">
         <v>1.8</v>
@@ -5022,16 +5025,16 @@
         <v>1.5</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>-0.9</v>
+        <v>-4.600000000000001</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>-2.25</v>
+        <v>-3.8</v>
       </c>
       <c r="K68" s="1" t="n">
-        <v>-3.75</v>
+        <v>-5.3</v>
       </c>
       <c r="L68" s="1" t="n"/>
       <c r="M68" s="1" t="n">
@@ -5041,10 +5044,10 @@
         <v>0</v>
       </c>
       <c r="O68" s="1" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="P68" s="1" t="n">
-        <v>-3</v>
+        <v>-4.55</v>
       </c>
       <c r="Q68" s="1" t="n"/>
       <c r="R68" s="1" t="n"/>
@@ -5058,10 +5061,10 @@
         <v>1</v>
       </c>
       <c r="V68" s="1" t="n">
-        <v>26.517</v>
+        <v>4.517</v>
       </c>
       <c r="W68" s="1" t="n">
-        <v>-27.5</v>
+        <v>-5.5</v>
       </c>
       <c r="X68" s="1" t="n">
         <v>0</v>
@@ -5075,48 +5078,48 @@
     </row>
     <row r="69" spans="1:28">
       <c r="A69" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B69" s="1" t="n"/>
       <c r="C69" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>-1.25</v>
+        <v>-1.85</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>0</v>
+        <v>-4.55</v>
       </c>
       <c r="F69" s="1" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="G69" s="1" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>-1.85</v>
+        <v>-2.75</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>-0.65</v>
+        <v>-0.9500000000000001</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>0.65</v>
+        <v>-3.8</v>
       </c>
       <c r="K69" s="1" t="n">
-        <v>-0.65</v>
+        <v>-5.3</v>
       </c>
       <c r="L69" s="1" t="n"/>
       <c r="M69" s="1" t="n">
-        <v>0.1369999999999999</v>
+        <v>0</v>
       </c>
       <c r="N69" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O69" s="1" t="n">
-        <v>-1.387</v>
+        <v>-1.85</v>
       </c>
       <c r="P69" s="1" t="n">
-        <v>0</v>
+        <v>-4.55</v>
       </c>
       <c r="Q69" s="1" t="n"/>
       <c r="R69" s="1" t="n"/>
@@ -5124,22 +5127,22 @@
         <v>32</v>
       </c>
       <c r="T69" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U69" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V69" s="1" t="n">
-        <v>0</v>
+        <v>4.517</v>
       </c>
       <c r="W69" s="1" t="n">
-        <v>0</v>
+        <v>-16.5</v>
       </c>
       <c r="X69" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y69" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z69" s="1" t="n"/>
       <c r="AA69" s="1" t="n"/>
@@ -5147,48 +5150,48 @@
     </row>
     <row r="70" spans="1:28">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B70" s="1" t="n"/>
       <c r="C70" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>-2.787</v>
+        <v>0</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>0.34</v>
+        <v>-4.55</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>1.474</v>
+        <v>1.8</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>0.62</v>
+        <v>1.5</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>-3.524</v>
+        <v>-0.9</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>-2.05</v>
+        <v>0.9</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>0.65</v>
+        <v>-3.8</v>
       </c>
       <c r="K70" s="1" t="n">
-        <v>0.03000000000000003</v>
+        <v>-5.3</v>
       </c>
       <c r="L70" s="1" t="n"/>
       <c r="M70" s="1" t="n">
-        <v>1.599</v>
+        <v>0</v>
       </c>
       <c r="N70" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O70" s="1" t="n">
-        <v>-4.386</v>
+        <v>0</v>
       </c>
       <c r="P70" s="1" t="n">
-        <v>0.34</v>
+        <v>-4.55</v>
       </c>
       <c r="Q70" s="1" t="n"/>
       <c r="R70" s="1" t="n"/>
@@ -5196,22 +5199,22 @@
         <v>32</v>
       </c>
       <c r="T70" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U70" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V70" s="1" t="n">
-        <v>0</v>
+        <v>15.517</v>
       </c>
       <c r="W70" s="1" t="n">
-        <v>0</v>
+        <v>-16.5</v>
       </c>
       <c r="X70" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z70" s="1" t="n"/>
       <c r="AA70" s="1" t="n"/>
@@ -5219,48 +5222,48 @@
     </row>
     <row r="71" spans="1:28">
       <c r="A71" s="1" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B71" s="1" t="n"/>
       <c r="C71" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>1</v>
+        <v>1.85</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>0.4</v>
+        <v>-4.55</v>
       </c>
       <c r="F71" s="1" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>0.65</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>1.35</v>
+        <v>2.75</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>0.65</v>
+        <v>-3.8</v>
       </c>
       <c r="K71" s="1" t="n">
-        <v>0.15</v>
+        <v>-5.3</v>
       </c>
       <c r="L71" s="1" t="n"/>
       <c r="M71" s="1" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="N71" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O71" s="1" t="n">
-        <v>-0.52</v>
+        <v>1.85</v>
       </c>
       <c r="P71" s="1" t="n">
-        <v>0.4</v>
+        <v>-4.55</v>
       </c>
       <c r="Q71" s="1" t="n"/>
       <c r="R71" s="1" t="n"/>
@@ -5268,22 +5271,22 @@
         <v>32</v>
       </c>
       <c r="T71" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U71" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V71" s="1" t="n">
-        <v>0</v>
+        <v>15.517</v>
       </c>
       <c r="W71" s="1" t="n">
-        <v>0</v>
+        <v>-27.5</v>
       </c>
       <c r="X71" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y71" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z71" s="1" t="n"/>
       <c r="AA71" s="1" t="n"/>
@@ -5291,48 +5294,48 @@
     </row>
     <row r="72" spans="1:28">
       <c r="A72" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="B72" s="1" t="n"/>
       <c r="C72" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>0</v>
+        <v>-4.55</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>-0.6</v>
+        <v>2.8</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>0.6</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="J72" s="1" t="n">
-        <v>0.65</v>
+        <v>-3.8</v>
       </c>
       <c r="K72" s="1" t="n">
-        <v>-0.65</v>
+        <v>-5.3</v>
       </c>
       <c r="L72" s="1" t="n"/>
       <c r="M72" s="1" t="n">
-        <v>0.958</v>
+        <v>0</v>
       </c>
       <c r="N72" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O72" s="1" t="n">
-        <v>-0.958</v>
+        <v>3.7</v>
       </c>
       <c r="P72" s="1" t="n">
-        <v>0</v>
+        <v>-4.55</v>
       </c>
       <c r="Q72" s="1" t="n"/>
       <c r="R72" s="1" t="n"/>
@@ -5340,22 +5343,22 @@
         <v>32</v>
       </c>
       <c r="T72" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U72" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V72" s="1" t="n">
-        <v>0</v>
+        <v>4.517</v>
       </c>
       <c r="W72" s="1" t="n">
-        <v>0</v>
+        <v>-27.5</v>
       </c>
       <c r="X72" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y72" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z72" s="1" t="n"/>
       <c r="AA72" s="1" t="n"/>
@@ -5363,35 +5366,35 @@
     </row>
     <row r="73" spans="1:28">
       <c r="A73" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="B73" s="1" t="n"/>
       <c r="C73" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D73" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>-11.25</v>
+        <v>-3</v>
       </c>
       <c r="F73" s="1" t="n">
-        <v>16.9</v>
+        <v>1.8</v>
       </c>
       <c r="G73" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H73" s="1" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="I73" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="H73" s="1" t="n">
-        <v>-8.449999999999999</v>
-      </c>
-      <c r="I73" s="1" t="n">
-        <v>8.449999999999999</v>
-      </c>
       <c r="J73" s="1" t="n">
-        <v>-10.8</v>
+        <v>-2.25</v>
       </c>
       <c r="K73" s="1" t="n">
-        <v>-11.7</v>
+        <v>-3.75</v>
       </c>
       <c r="L73" s="1" t="n"/>
       <c r="M73" s="1" t="n">
@@ -5404,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="P73" s="1" t="n">
-        <v>-11.25</v>
+        <v>-3</v>
       </c>
       <c r="Q73" s="1" t="n"/>
       <c r="R73" s="1" t="n"/>
@@ -5412,22 +5415,22 @@
         <v>32</v>
       </c>
       <c r="T73" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U73" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V73" s="1" t="n">
-        <v>0</v>
+        <v>26.517</v>
       </c>
       <c r="W73" s="1" t="n">
-        <v>0</v>
+        <v>-27.5</v>
       </c>
       <c r="X73" s="1" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y73" s="1" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="Z73" s="1" t="n"/>
       <c r="AA73" s="1" t="n"/>
@@ -5435,45 +5438,45 @@
     </row>
     <row r="74" spans="1:28">
       <c r="A74" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="B74" s="1" t="n"/>
       <c r="C74" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>10.35</v>
+        <v>-1.25</v>
       </c>
       <c r="E74" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F74" s="1" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>16.9</v>
+        <v>1.3</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>9.9</v>
+        <v>-1.85</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>10.8</v>
+        <v>-0.65</v>
       </c>
       <c r="J74" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="K74" s="1" t="n">
-        <v>-8.449999999999999</v>
+        <v>-0.65</v>
       </c>
       <c r="L74" s="1" t="n"/>
       <c r="M74" s="1" t="n">
-        <v>0</v>
+        <v>0.1369999999999999</v>
       </c>
       <c r="N74" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O74" s="1" t="n">
-        <v>10.35</v>
+        <v>-1.387</v>
       </c>
       <c r="P74" s="1" t="n">
         <v>0</v>
@@ -5484,22 +5487,22 @@
         <v>32</v>
       </c>
       <c r="T74" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U74" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V74" s="1" t="n">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="W74" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X74" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y74" s="1" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Z74" s="1" t="n"/>
       <c r="AA74" s="1" t="n"/>
@@ -5507,48 +5510,48 @@
     </row>
     <row r="75" spans="1:28">
       <c r="A75" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B75" s="1" t="n"/>
       <c r="C75" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>3.6</v>
+        <v>-2.787</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>-0.35</v>
+        <v>0.34</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>0.8</v>
+        <v>1.474</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>3.2</v>
+        <v>-3.524</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>4</v>
+        <v>-2.05</v>
       </c>
       <c r="J75" s="1" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="K75" s="1" t="n">
-        <v>-0.75</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="L75" s="1" t="n"/>
       <c r="M75" s="1" t="n">
-        <v>0</v>
+        <v>1.599</v>
       </c>
       <c r="N75" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O75" s="1" t="n">
-        <v>3.6</v>
+        <v>-4.386</v>
       </c>
       <c r="P75" s="1" t="n">
-        <v>-0.35</v>
+        <v>0.34</v>
       </c>
       <c r="Q75" s="1" t="n"/>
       <c r="R75" s="1" t="n"/>
@@ -5556,22 +5559,22 @@
         <v>32</v>
       </c>
       <c r="T75" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U75" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V75" s="1" t="n">
-        <v>38.096</v>
+        <v>0</v>
       </c>
       <c r="W75" s="1" t="n">
-        <v>-4.337000000000001</v>
+        <v>0</v>
       </c>
       <c r="X75" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y75" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z75" s="1" t="n"/>
       <c r="AA75" s="1" t="n"/>
@@ -5579,48 +5582,48 @@
     </row>
     <row r="76" spans="1:28">
       <c r="A76" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B76" s="1" t="n"/>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>-0.35</v>
+        <v>0.4</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>3.2</v>
+        <v>0.65</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>4</v>
+        <v>1.35</v>
       </c>
       <c r="J76" s="1" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="K76" s="1" t="n">
-        <v>-0.75</v>
+        <v>0.15</v>
       </c>
       <c r="L76" s="1" t="n"/>
       <c r="M76" s="1" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="N76" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O76" s="1" t="n">
-        <v>3.6</v>
+        <v>-0.52</v>
       </c>
       <c r="P76" s="1" t="n">
-        <v>-0.35</v>
+        <v>0.4</v>
       </c>
       <c r="Q76" s="1" t="n"/>
       <c r="R76" s="1" t="n"/>
@@ -5628,22 +5631,22 @@
         <v>32</v>
       </c>
       <c r="T76" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U76" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V76" s="1" t="n">
-        <v>38.096</v>
+        <v>0</v>
       </c>
       <c r="W76" s="1" t="n">
-        <v>6.255</v>
+        <v>0</v>
       </c>
       <c r="X76" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y76" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z76" s="1" t="n"/>
       <c r="AA76" s="1" t="n"/>
@@ -5651,48 +5654,48 @@
     </row>
     <row r="77" spans="1:28">
       <c r="A77" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B77" s="1" t="n"/>
       <c r="C77" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="E77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G77" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J77" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="F77" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G77" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H77" s="1" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I77" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J77" s="1" t="n">
-        <v>1.05</v>
-      </c>
       <c r="K77" s="1" t="n">
-        <v>0.25</v>
+        <v>-0.65</v>
       </c>
       <c r="L77" s="1" t="n"/>
       <c r="M77" s="1" t="n">
-        <v>-0.3</v>
+        <v>0.958</v>
       </c>
       <c r="N77" s="1" t="n">
-        <v>0.756</v>
+        <v>0</v>
       </c>
       <c r="O77" s="1" t="n">
-        <v>3.1</v>
+        <v>-0.958</v>
       </c>
       <c r="P77" s="1" t="n">
-        <v>-0.106</v>
+        <v>0</v>
       </c>
       <c r="Q77" s="1" t="n"/>
       <c r="R77" s="1" t="n"/>
@@ -5723,48 +5726,48 @@
     </row>
     <row r="78" spans="1:28">
       <c r="A78" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B78" s="1" t="n"/>
       <c r="C78" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>-0.25</v>
+        <v>-11.25</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>0.4</v>
+        <v>16.9</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>2.6</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>3</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="J78" s="1" t="n">
-        <v>0.04999999999999999</v>
+        <v>-10.8</v>
       </c>
       <c r="K78" s="1" t="n">
-        <v>-0.55</v>
+        <v>-11.7</v>
       </c>
       <c r="L78" s="1" t="n"/>
       <c r="M78" s="1" t="n">
-        <v>-0.3</v>
+        <v>-0.24</v>
       </c>
       <c r="N78" s="1" t="n">
-        <v>-0.662</v>
+        <v>-0.24</v>
       </c>
       <c r="O78" s="1" t="n">
-        <v>3.1</v>
+        <v>0.24</v>
       </c>
       <c r="P78" s="1" t="n">
-        <v>0.412</v>
+        <v>-11.01</v>
       </c>
       <c r="Q78" s="1" t="n"/>
       <c r="R78" s="1" t="n"/>
@@ -5772,10 +5775,10 @@
         <v>32</v>
       </c>
       <c r="T78" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U78" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V78" s="1" t="n">
         <v>0</v>
@@ -5784,10 +5787,10 @@
         <v>0</v>
       </c>
       <c r="X78" s="1" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Y78" s="1" t="n">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="Z78" s="1" t="n"/>
       <c r="AA78" s="1" t="n"/>
@@ -5795,48 +5798,48 @@
     </row>
     <row r="79" spans="1:28">
       <c r="A79" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B79" s="1" t="n"/>
       <c r="C79" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>12</v>
+        <v>-11.25</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>11.4</v>
+        <v>16.9</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>-5.7</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>5.7</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="J79" s="1" t="n">
-        <v>12.2</v>
+        <v>-10.8</v>
       </c>
       <c r="K79" s="1" t="n">
-        <v>11.8</v>
+        <v>-11.7</v>
       </c>
       <c r="L79" s="1" t="n"/>
       <c r="M79" s="1" t="n">
-        <v>0</v>
+        <v>-0.24</v>
       </c>
       <c r="N79" s="1" t="n">
-        <v>0.959</v>
+        <v>0.24</v>
       </c>
       <c r="O79" s="1" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="P79" s="1" t="n">
-        <v>11.041</v>
+        <v>-11.49</v>
       </c>
       <c r="Q79" s="1" t="n"/>
       <c r="R79" s="1" t="n"/>
@@ -5844,10 +5847,10 @@
         <v>32</v>
       </c>
       <c r="T79" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U79" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V79" s="1" t="n">
         <v>0</v>
@@ -5856,10 +5859,10 @@
         <v>0</v>
       </c>
       <c r="X79" s="1" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Y79" s="1" t="n">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="Z79" s="1" t="n"/>
       <c r="AA79" s="1" t="n"/>
@@ -5867,48 +5870,48 @@
     </row>
     <row r="80" spans="1:28">
       <c r="A80" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B80" s="1" t="n"/>
       <c r="C80" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>10.8</v>
+        <v>-11.25</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>6.4</v>
+        <v>16.9</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>-3.2</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="I80" s="1" t="n">
-        <v>3.2</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="J80" s="1" t="n">
-        <v>11</v>
+        <v>-10.8</v>
       </c>
       <c r="K80" s="1" t="n">
-        <v>10.6</v>
+        <v>-11.7</v>
       </c>
       <c r="L80" s="1" t="n"/>
       <c r="M80" s="1" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="N80" s="1" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="O80" s="1" t="n">
-        <v>0</v>
+        <v>-0.24</v>
       </c>
       <c r="P80" s="1" t="n">
-        <v>10.8</v>
+        <v>-11.49</v>
       </c>
       <c r="Q80" s="1" t="n"/>
       <c r="R80" s="1" t="n"/>
@@ -5916,22 +5919,22 @@
         <v>32</v>
       </c>
       <c r="T80" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U80" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V80" s="1" t="n">
-        <v>35.1</v>
+        <v>0</v>
       </c>
       <c r="W80" s="1" t="n">
-        <v>-26.541</v>
+        <v>0</v>
       </c>
       <c r="X80" s="1" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y80" s="1" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Z80" s="1" t="n"/>
       <c r="AA80" s="1" t="n"/>
@@ -5939,48 +5942,48 @@
     </row>
     <row r="81" spans="1:28">
       <c r="A81" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B81" s="1" t="n"/>
       <c r="C81" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>10.8</v>
+        <v>-11.25</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>6.4</v>
+        <v>16.9</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>-3.2</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="I81" s="1" t="n">
-        <v>3.2</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="J81" s="1" t="n">
-        <v>11</v>
+        <v>-10.8</v>
       </c>
       <c r="K81" s="1" t="n">
-        <v>10.6</v>
+        <v>-11.7</v>
       </c>
       <c r="L81" s="1" t="n"/>
       <c r="M81" s="1" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="N81" s="1" t="n">
-        <v>0</v>
+        <v>-0.24</v>
       </c>
       <c r="O81" s="1" t="n">
-        <v>0</v>
+        <v>-0.24</v>
       </c>
       <c r="P81" s="1" t="n">
-        <v>10.8</v>
+        <v>-11.01</v>
       </c>
       <c r="Q81" s="1" t="n"/>
       <c r="R81" s="1" t="n"/>
@@ -5988,22 +5991,22 @@
         <v>32</v>
       </c>
       <c r="T81" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U81" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V81" s="1" t="n">
-        <v>35.1</v>
+        <v>0</v>
       </c>
       <c r="W81" s="1" t="n">
-        <v>28.459</v>
+        <v>0</v>
       </c>
       <c r="X81" s="1" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y81" s="1" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Z81" s="1" t="n"/>
       <c r="AA81" s="1" t="n"/>
@@ -6011,35 +6014,35 @@
     </row>
     <row r="82" spans="1:28">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B82" s="1" t="n"/>
       <c r="C82" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>-8.15</v>
+        <v>0</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>0.8</v>
+        <v>-11.25</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>0.4</v>
+        <v>16.9</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>22.4</v>
+        <v>0.9</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>-8.35</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>-7.95</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="J82" s="1" t="n">
-        <v>12</v>
+        <v>-10.8</v>
       </c>
       <c r="K82" s="1" t="n">
-        <v>-10.4</v>
+        <v>-11.7</v>
       </c>
       <c r="L82" s="1" t="n"/>
       <c r="M82" s="1" t="n">
@@ -6049,10 +6052,10 @@
         <v>0</v>
       </c>
       <c r="O82" s="1" t="n">
-        <v>-8.15</v>
+        <v>0</v>
       </c>
       <c r="P82" s="1" t="n">
-        <v>0.8</v>
+        <v>-11.25</v>
       </c>
       <c r="Q82" s="1" t="n"/>
       <c r="R82" s="1" t="n"/>
@@ -6060,22 +6063,22 @@
         <v>32</v>
       </c>
       <c r="T82" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U82" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V82" s="1" t="n">
-        <v>38.096</v>
+        <v>0</v>
       </c>
       <c r="W82" s="1" t="n">
-        <v>-15.537</v>
+        <v>0</v>
       </c>
       <c r="X82" s="1" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y82" s="1" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Z82" s="1" t="n"/>
       <c r="AA82" s="1" t="n"/>
@@ -6083,35 +6086,35 @@
     </row>
     <row r="83" spans="1:28">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83" s="1" t="n"/>
       <c r="C83" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>-8.15</v>
+        <v>10.35</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="G83" s="1" t="n">
-        <v>22.4</v>
+        <v>16.9</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>-8.35</v>
+        <v>9.9</v>
       </c>
       <c r="I83" s="1" t="n">
-        <v>-7.95</v>
+        <v>10.8</v>
       </c>
       <c r="J83" s="1" t="n">
-        <v>12</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="K83" s="1" t="n">
-        <v>-10.4</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="L83" s="1" t="n"/>
       <c r="M83" s="1" t="n">
@@ -6121,10 +6124,10 @@
         <v>0</v>
       </c>
       <c r="O83" s="1" t="n">
-        <v>-8.15</v>
+        <v>10.35</v>
       </c>
       <c r="P83" s="1" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="1" t="n"/>
       <c r="R83" s="1" t="n"/>
@@ -6135,19 +6138,19 @@
         <v>1</v>
       </c>
       <c r="U83" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V83" s="1" t="n">
-        <v>38.096</v>
+        <v>-38</v>
       </c>
       <c r="W83" s="1" t="n">
-        <v>17.455</v>
+        <v>0</v>
       </c>
       <c r="X83" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y83" s="1" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z83" s="1" t="n"/>
       <c r="AA83" s="1" t="n"/>
@@ -6155,35 +6158,35 @@
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="1" t="n"/>
       <c r="C84" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G84" s="1" t="n">
-        <v>11.4</v>
+        <v>0.8</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>-10.15</v>
+        <v>3.2</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>-9.75</v>
+        <v>4</v>
       </c>
       <c r="J84" s="1" t="n">
-        <v>5.7</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="K84" s="1" t="n">
-        <v>-5.7</v>
+        <v>-0.75</v>
       </c>
       <c r="L84" s="1" t="n"/>
       <c r="M84" s="1" t="n">
@@ -6193,10 +6196,10 @@
         <v>0</v>
       </c>
       <c r="O84" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="P84" s="1" t="n">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="Q84" s="1" t="n"/>
       <c r="R84" s="1" t="n"/>
@@ -6207,19 +6210,19 @@
         <v>1</v>
       </c>
       <c r="U84" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V84" s="1" t="n">
-        <v>32.996</v>
+        <v>38.096</v>
       </c>
       <c r="W84" s="1" t="n">
-        <v>0.959</v>
+        <v>-4.337000000000001</v>
       </c>
       <c r="X84" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y84" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Z84" s="1" t="n"/>
       <c r="AA84" s="1" t="n"/>
@@ -6227,35 +6230,35 @@
     </row>
     <row r="85" spans="1:28">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" s="1" t="n"/>
       <c r="C85" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G85" s="1" t="n">
-        <v>11.4</v>
+        <v>0.8</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>-10.15</v>
+        <v>3.2</v>
       </c>
       <c r="I85" s="1" t="n">
-        <v>-9.75</v>
+        <v>4</v>
       </c>
       <c r="J85" s="1" t="n">
-        <v>5.7</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="K85" s="1" t="n">
-        <v>-5.7</v>
+        <v>-0.75</v>
       </c>
       <c r="L85" s="1" t="n"/>
       <c r="M85" s="1" t="n">
@@ -6265,10 +6268,10 @@
         <v>0</v>
       </c>
       <c r="O85" s="1" t="n">
-        <v>-9.949999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="P85" s="1" t="n">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="Q85" s="1" t="n"/>
       <c r="R85" s="1" t="n"/>
@@ -6279,19 +6282,19 @@
         <v>1</v>
       </c>
       <c r="U85" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V85" s="1" t="n">
-        <v>-32.996</v>
+        <v>38.096</v>
       </c>
       <c r="W85" s="1" t="n">
-        <v>0.959</v>
+        <v>6.255</v>
       </c>
       <c r="X85" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y85" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Z85" s="1" t="n"/>
       <c r="AA85" s="1" t="n"/>
@@ -6299,48 +6302,48 @@
     </row>
     <row r="86" spans="1:28">
       <c r="A86" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B86" s="1" t="n"/>
       <c r="C86" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>-2.8</v>
+        <v>2.8</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>-0.47</v>
+        <v>0.65</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>-3.55</v>
+        <v>2.6</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>-2.05</v>
+        <v>3</v>
       </c>
       <c r="J86" s="1" t="n">
-        <v>-0.17</v>
+        <v>1.05</v>
       </c>
       <c r="K86" s="1" t="n">
-        <v>-0.77</v>
+        <v>0.25</v>
       </c>
       <c r="L86" s="1" t="n"/>
       <c r="M86" s="1" t="n">
-        <v>1.599</v>
+        <v>-0.3</v>
       </c>
       <c r="N86" s="1" t="n">
-        <v>0</v>
+        <v>0.756</v>
       </c>
       <c r="O86" s="1" t="n">
-        <v>-4.399</v>
+        <v>3.1</v>
       </c>
       <c r="P86" s="1" t="n">
-        <v>-0.47</v>
+        <v>-0.106</v>
       </c>
       <c r="Q86" s="1" t="n"/>
       <c r="R86" s="1" t="n"/>
@@ -6370,34 +6373,682 @@
       <c r="AB86" s="1" t="s"/>
     </row>
     <row r="87" spans="1:28">
-      <c r="A87" s="1" t="n"/>
+      <c r="A87" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="B87" s="1" t="n"/>
-      <c r="C87" s="1" t="n"/>
-      <c r="D87" s="1" t="n"/>
-      <c r="E87" s="1" t="n"/>
-      <c r="F87" s="1" t="n"/>
-      <c r="G87" s="1" t="n"/>
-      <c r="H87" s="1" t="n"/>
-      <c r="I87" s="1" t="n"/>
-      <c r="J87" s="1" t="n"/>
-      <c r="K87" s="1" t="n"/>
+      <c r="C87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G87" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H87" s="1" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J87" s="1" t="n">
+        <v>0.04999999999999999</v>
+      </c>
+      <c r="K87" s="1" t="n">
+        <v>-0.55</v>
+      </c>
       <c r="L87" s="1" t="n"/>
-      <c r="M87" s="1" t="n"/>
-      <c r="N87" s="1" t="n"/>
-      <c r="O87" s="1" t="n"/>
-      <c r="P87" s="1" t="n"/>
+      <c r="M87" s="1" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="N87" s="1" t="n">
+        <v>-0.662</v>
+      </c>
+      <c r="O87" s="1" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="P87" s="1" t="n">
+        <v>0.412</v>
+      </c>
       <c r="Q87" s="1" t="n"/>
       <c r="R87" s="1" t="n"/>
-      <c r="S87" s="1" t="n"/>
-      <c r="T87" s="1" t="n"/>
-      <c r="U87" s="1" t="n"/>
-      <c r="V87" s="1" t="n"/>
-      <c r="W87" s="1" t="n"/>
-      <c r="X87" s="1" t="n"/>
-      <c r="Y87" s="1" t="n"/>
+      <c r="S87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X87" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y87" s="1" t="n">
+        <v>11</v>
+      </c>
       <c r="Z87" s="1" t="n"/>
       <c r="AA87" s="1" t="n"/>
-      <c r="AB87" s="1" t="n"/>
+      <c r="AB87" s="1" t="s"/>
+    </row>
+    <row r="88" spans="1:28">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="1" t="n"/>
+      <c r="C88" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="G88" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H88" s="1" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J88" s="1" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K88" s="1" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L88" s="1" t="n"/>
+      <c r="M88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" s="1" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="O88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" s="1" t="n">
+        <v>11.041</v>
+      </c>
+      <c r="Q88" s="1" t="n"/>
+      <c r="R88" s="1" t="n"/>
+      <c r="S88" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T88" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U88" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X88" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y88" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z88" s="1" t="n"/>
+      <c r="AA88" s="1" t="n"/>
+      <c r="AB88" s="1" t="s"/>
+    </row>
+    <row r="89" spans="1:28">
+      <c r="A89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="1" t="n"/>
+      <c r="C89" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G89" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H89" s="1" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J89" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="K89" s="1" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L89" s="1" t="n"/>
+      <c r="M89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" s="1" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="Q89" s="1" t="n"/>
+      <c r="R89" s="1" t="n"/>
+      <c r="S89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" s="1" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="W89" s="1" t="n">
+        <v>-26.541</v>
+      </c>
+      <c r="X89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="1" t="n"/>
+      <c r="AA89" s="1" t="n"/>
+      <c r="AB89" s="1" t="s"/>
+    </row>
+    <row r="90" spans="1:28">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="n"/>
+      <c r="C90" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G90" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H90" s="1" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J90" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="K90" s="1" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L90" s="1" t="n"/>
+      <c r="M90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" s="1" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="Q90" s="1" t="n"/>
+      <c r="R90" s="1" t="n"/>
+      <c r="S90" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" s="1" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="W90" s="1" t="n">
+        <v>28.459</v>
+      </c>
+      <c r="X90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="1" t="n"/>
+      <c r="AA90" s="1" t="n"/>
+      <c r="AB90" s="1" t="s"/>
+    </row>
+    <row r="91" spans="1:28">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="n"/>
+      <c r="C91" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>-8.15</v>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F91" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G91" s="1" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="H91" s="1" t="n">
+        <v>-8.35</v>
+      </c>
+      <c r="I91" s="1" t="n">
+        <v>-7.95</v>
+      </c>
+      <c r="J91" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K91" s="1" t="n">
+        <v>-10.4</v>
+      </c>
+      <c r="L91" s="1" t="n"/>
+      <c r="M91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" s="1" t="n">
+        <v>-8.15</v>
+      </c>
+      <c r="P91" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q91" s="1" t="n"/>
+      <c r="R91" s="1" t="n"/>
+      <c r="S91" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" s="1" t="n">
+        <v>38.096</v>
+      </c>
+      <c r="W91" s="1" t="n">
+        <v>-15.537</v>
+      </c>
+      <c r="X91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="1" t="n"/>
+      <c r="AA91" s="1" t="n"/>
+      <c r="AB91" s="1" t="s"/>
+    </row>
+    <row r="92" spans="1:28">
+      <c r="A92" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" s="1" t="n"/>
+      <c r="C92" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>-8.15</v>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F92" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G92" s="1" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="H92" s="1" t="n">
+        <v>-8.35</v>
+      </c>
+      <c r="I92" s="1" t="n">
+        <v>-7.95</v>
+      </c>
+      <c r="J92" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K92" s="1" t="n">
+        <v>-10.4</v>
+      </c>
+      <c r="L92" s="1" t="n"/>
+      <c r="M92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" s="1" t="n">
+        <v>-8.15</v>
+      </c>
+      <c r="P92" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q92" s="1" t="n"/>
+      <c r="R92" s="1" t="n"/>
+      <c r="S92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" s="1" t="n">
+        <v>38.096</v>
+      </c>
+      <c r="W92" s="1" t="n">
+        <v>17.455</v>
+      </c>
+      <c r="X92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="1" t="n"/>
+      <c r="AA92" s="1" t="n"/>
+      <c r="AB92" s="1" t="s"/>
+    </row>
+    <row r="93" spans="1:28">
+      <c r="A93" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" s="1" t="n"/>
+      <c r="C93" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>-9.949999999999999</v>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G93" s="1" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H93" s="1" t="n">
+        <v>-10.15</v>
+      </c>
+      <c r="I93" s="1" t="n">
+        <v>-9.75</v>
+      </c>
+      <c r="J93" s="1" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K93" s="1" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="L93" s="1" t="n"/>
+      <c r="M93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" s="1" t="n">
+        <v>-9.949999999999999</v>
+      </c>
+      <c r="P93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="1" t="n"/>
+      <c r="R93" s="1" t="n"/>
+      <c r="S93" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T93" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U93" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V93" s="1" t="n">
+        <v>32.996</v>
+      </c>
+      <c r="W93" s="1" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="X93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z93" s="1" t="n"/>
+      <c r="AA93" s="1" t="n"/>
+      <c r="AB93" s="1" t="s"/>
+    </row>
+    <row r="94" spans="1:28">
+      <c r="A94" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" s="1" t="n"/>
+      <c r="C94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>-9.949999999999999</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G94" s="1" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H94" s="1" t="n">
+        <v>-10.15</v>
+      </c>
+      <c r="I94" s="1" t="n">
+        <v>-9.75</v>
+      </c>
+      <c r="J94" s="1" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K94" s="1" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="L94" s="1" t="n"/>
+      <c r="M94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" s="1" t="n">
+        <v>-9.949999999999999</v>
+      </c>
+      <c r="P94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="1" t="n"/>
+      <c r="R94" s="1" t="n"/>
+      <c r="S94" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T94" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U94" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" s="1" t="n">
+        <v>-32.996</v>
+      </c>
+      <c r="W94" s="1" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="X94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z94" s="1" t="n"/>
+      <c r="AA94" s="1" t="n"/>
+      <c r="AB94" s="1" t="s"/>
+    </row>
+    <row r="95" spans="1:28">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="1" t="n"/>
+      <c r="C95" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="F95" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G95" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H95" s="1" t="n">
+        <v>-3.55</v>
+      </c>
+      <c r="I95" s="1" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="J95" s="1" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="K95" s="1" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="L95" s="1" t="n"/>
+      <c r="M95" s="1" t="n">
+        <v>1.599</v>
+      </c>
+      <c r="N95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" s="1" t="n">
+        <v>-4.399</v>
+      </c>
+      <c r="P95" s="1" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="Q95" s="1" t="n"/>
+      <c r="R95" s="1" t="n"/>
+      <c r="S95" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T95" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U95" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X95" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y95" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z95" s="1" t="n"/>
+      <c r="AA95" s="1" t="n"/>
+      <c r="AB95" s="1" t="s"/>
+    </row>
+    <row r="96" spans="1:28">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="1" t="n"/>
+      <c r="C96" s="1" t="n"/>
+      <c r="D96" s="1" t="n"/>
+      <c r="E96" s="1" t="n"/>
+      <c r="F96" s="1" t="n"/>
+      <c r="G96" s="1" t="n"/>
+      <c r="H96" s="1" t="n"/>
+      <c r="I96" s="1" t="n"/>
+      <c r="J96" s="1" t="n"/>
+      <c r="K96" s="1" t="n"/>
+      <c r="L96" s="1" t="n"/>
+      <c r="M96" s="1" t="n"/>
+      <c r="N96" s="1" t="n"/>
+      <c r="O96" s="1" t="n"/>
+      <c r="P96" s="1" t="n"/>
+      <c r="Q96" s="1" t="n"/>
+      <c r="R96" s="1" t="n"/>
+      <c r="S96" s="1" t="n"/>
+      <c r="T96" s="1" t="n"/>
+      <c r="U96" s="1" t="n"/>
+      <c r="V96" s="1" t="n"/>
+      <c r="W96" s="1" t="n"/>
+      <c r="X96" s="1" t="n"/>
+      <c r="Y96" s="1" t="n"/>
+      <c r="Z96" s="1" t="n"/>
+      <c r="AA96" s="1" t="n"/>
+      <c r="AB96" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6464,39 +7115,39 @@
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="1" t="n"/>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N1" s="1" t="n"/>
       <c r="O1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="S1" s="1" t="n"/>
       <c r="T1" s="1" t="n"/>
@@ -6510,10 +7161,10 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>29</v>
@@ -6535,7 +7186,7 @@
       </c>
       <c r="I2" s="1" t="n"/>
       <c r="J2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>4</v>
@@ -6548,7 +7199,7 @@
       </c>
       <c r="N2" s="1" t="n"/>
       <c r="O2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>5</v>
